--- a/Results/lica_placebo_nEXTERNAL_VALIDATION_SUMMARY.xlsx
+++ b/Results/lica_placebo_nEXTERNAL_VALIDATION_SUMMARY.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Age, Sex_Male, Diagnostic_Delay, Onset_Limb, Vital_capacity</t>
+          <t>Age, Onset_Limb, Sex_Male, Age_onset</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -493,7 +493,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.747</t>
+          <t>0.585</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -509,12 +509,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.838</t>
+          <t>0.402</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[0.659, 0.962]</t>
+          <t>[0.314, 0.510]</t>
         </is>
       </c>
     </row>
@@ -529,12 +529,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.025</t>
+          <t>-0.303</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[0.837, 7.338]</t>
+          <t>[-1.067, 0.359]</t>
         </is>
       </c>
     </row>
@@ -549,12 +549,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.229</t>
+          <t>0.235</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[0.058, 0.382]</t>
+          <t>[0.151, 0.327]</t>
         </is>
       </c>
     </row>
@@ -569,12 +569,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.191</t>
+          <t>0.366</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[0.152, 0.231]</t>
+          <t>[0.318, 0.416]</t>
         </is>
       </c>
     </row>
@@ -589,12 +589,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.281</t>
+          <t>-0.928</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[-1.541, 1.072]</t>
+          <t>[-1.397, -0.036]</t>
         </is>
       </c>
     </row>
@@ -609,12 +609,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.228</t>
+          <t>0.588</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[0.245, 2.548]</t>
+          <t>[0.304, 0.971]</t>
         </is>
       </c>
     </row>
@@ -629,12 +629,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.227</t>
+          <t>0.249</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[0.060, 0.366]</t>
+          <t>[0.166, 0.328]</t>
         </is>
       </c>
     </row>
@@ -649,12 +649,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.046</t>
+          <t>-0.214</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[-0.038, 0.087]</t>
+          <t>[-0.119, -0.007]</t>
         </is>
       </c>
     </row>

--- a/Results/lica_placebo_nEXTERNAL_VALIDATION_SUMMARY.xlsx
+++ b/Results/lica_placebo_nEXTERNAL_VALIDATION_SUMMARY.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -477,7 +477,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Age, Onset_Limb, Sex_Male, Age_onset</t>
+          <t>Age, Onset_Limb, Sex_Male, Diagnostic_Delay, Age_sq</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -493,7 +493,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.585</t>
+          <t>0.825</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -509,12 +509,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.402</t>
+          <t>0.695</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[0.314, 0.510]</t>
+          <t>[0.649, 0.737]</t>
         </is>
       </c>
     </row>
@@ -529,12 +529,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.303</t>
+          <t>1.195</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[-1.067, 0.359]</t>
+          <t>[0.885, 1.659]</t>
         </is>
       </c>
     </row>
@@ -544,17 +544,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Observed KM risk at 30 months</t>
+          <t>Observed KM risk at 20 months</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.235</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[0.151, 0.327]</t>
+          <t>[0.224, 0.347]</t>
         </is>
       </c>
     </row>
@@ -564,17 +564,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mean predicted risk at 30 months (frozen)</t>
+          <t>Mean predicted risk at 20 months (frozen)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.366</t>
+          <t>0.474</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[0.318, 0.416]</t>
+          <t>[0.438, 0.514]</t>
         </is>
       </c>
     </row>
@@ -584,17 +584,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CITL at 30 months (frozen)</t>
+          <t>CITL at 20 months (frozen)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-0.928</t>
+          <t>-1.225</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[-1.397, -0.036]</t>
+          <t>[-1.256, -0.402]</t>
         </is>
       </c>
     </row>
@@ -609,12 +609,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.588</t>
+          <t>0.533</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[0.304, 0.971]</t>
+          <t>[0.364, 0.729]</t>
         </is>
       </c>
     </row>
@@ -624,17 +624,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mean predicted risk at 30 months (baseline-updated)</t>
+          <t>Mean predicted risk at 20 months (baseline-updated)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.249</t>
+          <t>0.326</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[0.166, 0.328]</t>
+          <t>[0.267, 0.374]</t>
         </is>
       </c>
     </row>
@@ -644,17 +644,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CITL at 30 months (baseline-updated)</t>
+          <t>CITL at 20 months (baseline-updated)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-0.214</t>
+          <t>-0.263</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[-0.119, -0.007]</t>
+          <t>[-0.242, -0.090]</t>
         </is>
       </c>
     </row>
